--- a/log_history/Y3_B2526_Pathology_Lab_Museum_scanner1761215252437_2b8eb29f7464be359f06b0dda04258f2a78c2786d2b519cbb3a241a2c2e1e9f9.xlsx
+++ b/log_history/Y3_B2526_Pathology_Lab_Museum_scanner1761215252437_2b8eb29f7464be359f06b0dda04258f2a78c2786d2b519cbb3a241a2c2e1e9f9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Pathology_Lab_Museum" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y3_B2526_Pathology_Lab_Museum_scanner1761215252437_2b8eb29f7464be359f06b0dda04258f2a78c2786d2b519cbb3a241a2c2e1e9f9.xlsx
+++ b/log_history/Y3_B2526_Pathology_Lab_Museum_scanner1761215252437_2b8eb29f7464be359f06b0dda04258f2a78c2786d2b519cbb3a241a2c2e1e9f9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Pathology_Lab_Museum" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
